--- a/odds.xlsx
+++ b/odds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zd3O05\pleiades\workspace\OddsTheory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B811A89D-4C63-4339-894B-33654C74B301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A23D12-4257-4769-9AA3-D84A55CCE809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14070" yWindow="0" windowWidth="14730" windowHeight="15435" activeTab="0" xr2:uid="{D11CF179-3E3B-4204-9CA0-19BD35DBB9F4}"/>
+    <workbookView xWindow="14220" yWindow="0" windowWidth="14580" windowHeight="11295" activeTab="0" xr2:uid="{D11CF179-3E3B-4204-9CA0-19BD35DBB9F4}"/>
   </bookViews>
   <sheets>
     <sheet name="TanFuku" sheetId="1" r:id="rId1"/>
@@ -760,9 +760,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -800,7 +800,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -906,7 +906,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1048,7 +1048,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/odds.xlsx
+++ b/odds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zd3O05\pleiades\workspace\OddsTheory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A23D12-4257-4769-9AA3-D84A55CCE809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5AEA7D-6B96-47D4-873A-119C32BF4DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14220" yWindow="0" windowWidth="14580" windowHeight="11295" activeTab="0" xr2:uid="{D11CF179-3E3B-4204-9CA0-19BD35DBB9F4}"/>
   </bookViews>

--- a/odds.xlsx
+++ b/odds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zd3O05\pleiades\workspace\OddsTheory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5AEA7D-6B96-47D4-873A-119C32BF4DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848DAAB7-ADFF-41A4-B27E-138A7A13CAA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14220" yWindow="0" windowWidth="14580" windowHeight="11295" activeTab="0" xr2:uid="{D11CF179-3E3B-4204-9CA0-19BD35DBB9F4}"/>
   </bookViews>
